--- a/Reach Wise Divison/BAvsWA/Density.xlsx
+++ b/Reach Wise Divison/BAvsWA/Density.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iiser-my.sharepoint.com/personal/sohan16_iiserb_ac_in/Documents/Excel data for Various Parameters/Reach Wise Divison/BAvsWA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{AA75F768-6ECE-4C97-A3DE-CCA95187C876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EC9FF01-4F1F-4E28-B6D8-4582509A1B4F}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{AA75F768-6ECE-4C97-A3DE-CCA95187C876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B674ECA8-C456-4696-B1D4-6E6EC1AF60EA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5162A370-3F6C-4B0F-9948-AADA5A9A6B03}"/>
   </bookViews>
@@ -291,8 +291,1233 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pre-2017-Exposed-Bar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.94989499899999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4079291650000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.609110475</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.569434596</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.653052674</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.198394567</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73620485800000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3814366339999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.675657489</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4920-4CA3-A0B8-4512AF05C9E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pre-2018-Exposed-Bar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.92214306400000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7059701289999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.056715455</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7120433799999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.431464823</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91687011399999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5679004729999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.784827521</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.186578895</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4920-4CA3-A0B8-4512AF05C9E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pre-2019-Exposed-Bar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.5904085429999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.530699872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6654686910000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.163391394</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46748550500000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3284120349999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5506983320000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2285185000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2640604000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4920-4CA3-A0B8-4512AF05C9E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pre-2020-Exposed-Bar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.3819065290000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.360239376</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9403875840000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8541449729999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.421888295</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.456205543</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82380052199999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.30067012399999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.158412055</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4920-4CA3-A0B8-4512AF05C9E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="692170143"/>
+        <c:axId val="2064700319"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="692170143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2064700319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2064700319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="692170143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D7F98D7-3E53-0AD3-50EF-FC33A4ECE744}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -592,15 +1817,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC221278-28D9-4364-B562-9E98787E13C3}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B1" sqref="B1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -616,32 +1841,34 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -657,36 +1884,38 @@
       <c r="E2" s="2">
         <v>1.3819065290000001</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
         <v>0.23142564603940499</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>0.18540641849865999</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>0.38611071733899999</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>0.31851814645499998</v>
       </c>
-      <c r="J2">
-        <f>B2/F2</f>
+      <c r="K2" s="2"/>
+      <c r="L2">
+        <f>B2/G2</f>
         <v>4.1045364472624639</v>
       </c>
-      <c r="K2">
-        <f t="shared" ref="K2:M2" si="0">C2/G2</f>
+      <c r="M2">
+        <f>C2/H2</f>
         <v>4.9736307484234414</v>
       </c>
-      <c r="L2">
-        <f t="shared" si="0"/>
+      <c r="N2">
+        <f>D2/I2</f>
         <v>4.119047909264955</v>
       </c>
-      <c r="M2">
-        <f t="shared" si="0"/>
+      <c r="O2">
+        <f>E2/J2</f>
         <v>4.338548821723835</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -702,36 +1931,38 @@
       <c r="E3" s="2">
         <v>1.360239376</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
         <v>0.27790620946134598</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>0.13990808245327899</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>0.50076996969400001</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>0.43333384679699999</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J10" si="1">B3/F3</f>
+      <c r="K3" s="2"/>
+      <c r="L3">
+        <f>B3/G3</f>
         <v>8.6645389092499538</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K10" si="2">C3/G3</f>
+      <c r="M3">
+        <f>C3/H3</f>
         <v>19.341056510467389</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L10" si="3">D3/H3</f>
+      <c r="N3">
+        <f>D3/I3</f>
         <v>5.0536174793915993</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M10" si="4">E3/I3</f>
+      <c r="O3">
+        <f t="shared" ref="O3:O10" si="0">E3/J3</f>
         <v>3.1390102251514618</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -747,36 +1978,38 @@
       <c r="E4" s="2">
         <v>2.9403875840000002</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
         <v>0.29624963441542101</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>0.2465022339704</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>0.805959552744</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>0.70067459356899997</v>
       </c>
-      <c r="J4">
-        <f t="shared" si="1"/>
+      <c r="K4" s="2"/>
+      <c r="L4">
+        <f>B4/G4</f>
         <v>8.8071348346082043</v>
       </c>
-      <c r="K4">
-        <f t="shared" si="2"/>
+      <c r="M4">
+        <f>C4/H4</f>
         <v>8.3435976294112226</v>
       </c>
-      <c r="L4">
-        <f t="shared" si="3"/>
+      <c r="N4">
+        <f>D4/I4</f>
         <v>2.0664420259424721</v>
       </c>
-      <c r="M4">
-        <f t="shared" si="4"/>
+      <c r="O4">
+        <f t="shared" si="0"/>
         <v>4.1965094938331617</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -792,36 +2025,38 @@
       <c r="E5" s="2">
         <v>1.8541449729999999</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
         <v>0.28077666973979698</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>0.30696758293909998</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>1.67800261701</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>1.0125417158281</v>
       </c>
-      <c r="J5">
-        <f t="shared" si="1"/>
+      <c r="K5" s="2"/>
+      <c r="L5">
+        <f>B5/G5</f>
         <v>5.5896189574954205</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="2"/>
+      <c r="M5">
+        <f>C5/H5</f>
         <v>5.5772774558402025</v>
       </c>
-      <c r="L5">
-        <f t="shared" si="3"/>
+      <c r="N5">
+        <f>D5/I5</f>
         <v>9.7372550163922822E-2</v>
       </c>
-      <c r="M5">
-        <f t="shared" si="4"/>
+      <c r="O5">
+        <f t="shared" si="0"/>
         <v>1.8311788482547611</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -837,36 +2072,38 @@
       <c r="E6" s="2">
         <v>2.421888295</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
         <v>0.34500204869123002</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>0.30433200852248998</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>0.96420385489399996</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>0.79194412728670305</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="1"/>
+      <c r="K6" s="2"/>
+      <c r="L6">
+        <f>B6/G6</f>
         <v>1.8928950609927222</v>
       </c>
-      <c r="K6">
-        <f t="shared" si="2"/>
+      <c r="M6">
+        <f>C6/H6</f>
         <v>1.4177438156923772</v>
       </c>
-      <c r="L6">
-        <f t="shared" si="3"/>
+      <c r="N6">
+        <f>D6/I6</f>
         <v>0.48484094170251291</v>
       </c>
-      <c r="M6">
-        <f t="shared" si="4"/>
+      <c r="O6">
+        <f t="shared" si="0"/>
         <v>3.0581555081387926</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -882,36 +2119,38 @@
       <c r="E7" s="2">
         <v>1.456205543</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
         <v>0.45556016807102001</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>0.42501484978143</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>0.834882551852</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>0.59477968611954701</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="1"/>
+      <c r="K7" s="2"/>
+      <c r="L7">
+        <f>B7/G7</f>
         <v>2.6305955853743015</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="2"/>
+      <c r="M7">
+        <f>C7/H7</f>
         <v>2.1572660684009359</v>
       </c>
-      <c r="L7">
-        <f t="shared" si="3"/>
+      <c r="N7">
+        <f>D7/I7</f>
         <v>1.5911364203901679</v>
       </c>
-      <c r="M7">
-        <f t="shared" si="4"/>
+      <c r="O7">
+        <f t="shared" si="0"/>
         <v>2.448310823290814</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -927,36 +2166,38 @@
       <c r="E8" s="2">
         <v>0.82380052199999998</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
         <v>0.56987518295499995</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>0.412340324792</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>1.35535515202</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>1.7050354089899999</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="1"/>
+      <c r="K8" s="2"/>
+      <c r="L8">
+        <f>B8/G8</f>
         <v>1.2918703604226511</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="2"/>
+      <c r="M8">
+        <f>C8/H8</f>
         <v>3.8024427365693811</v>
       </c>
-      <c r="L8">
-        <f t="shared" si="3"/>
+      <c r="N8">
+        <f>D8/I8</f>
         <v>1.1441269321099077</v>
       </c>
-      <c r="M8">
-        <f t="shared" si="4"/>
+      <c r="O8">
+        <f t="shared" si="0"/>
         <v>0.48315742749764301</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -972,36 +2213,38 @@
       <c r="E9" s="2">
         <v>0.30067012399999998</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
         <v>0.47428036527599998</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>0.39418928518899998</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>0.910463881626</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>1.05649138751353</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="1"/>
+      <c r="K9" s="2"/>
+      <c r="L9">
+        <f>B9/G9</f>
         <v>2.9127004513376695</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="2"/>
+      <c r="M9">
+        <f>C9/H9</f>
         <v>4.5278438254460358</v>
       </c>
-      <c r="L9">
-        <f t="shared" si="3"/>
+      <c r="N9">
+        <f>D9/I9</f>
         <v>3.546014910810278E-2</v>
       </c>
-      <c r="M9">
-        <f t="shared" si="4"/>
+      <c r="O9">
+        <f t="shared" si="0"/>
         <v>0.28459306678082069</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1017,38 +2260,41 @@
       <c r="E10" s="2">
         <v>0.158412055</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
         <v>0.313412385685513</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>0.41311316761980799</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>0.77499042046400002</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>0.66796310097940004</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
+      <c r="K10" s="2"/>
+      <c r="L10">
+        <f>B10/G10</f>
         <v>2.1558097888255578</v>
       </c>
-      <c r="K10">
-        <f t="shared" si="2"/>
+      <c r="M10">
+        <f>C10/H10</f>
         <v>2.8722853397208099</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="3"/>
+      <c r="N10">
+        <f>D10/I10</f>
         <v>2.9214043686429936E-2</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="4"/>
+      <c r="O10">
+        <f t="shared" si="0"/>
         <v>0.23715689499573933</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
